--- a/ValueSet-befundstatust-vs.xlsx
+++ b/ValueSet-befundstatust-vs.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-09-17T19:55:11+00:00</t>
+    <t>2024-09-18T10:41:35+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ValueSet-befundstatust-vs.xlsx
+++ b/ValueSet-befundstatust-vs.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-09-18T10:41:35+00:00</t>
+    <t>2024-09-18T11:11:15+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ValueSet-befundstatust-vs.xlsx
+++ b/ValueSet-befundstatust-vs.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-09-18T11:11:15+00:00</t>
+    <t>2024-10-31T11:09:37+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ValueSet-befundstatust-vs.xlsx
+++ b/ValueSet-befundstatust-vs.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-10-31T11:09:37+00:00</t>
+    <t>2024-10-31T11:09:58+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ValueSet-befundstatust-vs.xlsx
+++ b/ValueSet-befundstatust-vs.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-10-31T11:09:58+00:00</t>
+    <t>2024-12-02T15:35:52+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ValueSet-befundstatust-vs.xlsx
+++ b/ValueSet-befundstatust-vs.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-12-02T15:35:52+00:00</t>
+    <t>2025-02-09T15:43:55+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ValueSet-befundstatust-vs.xlsx
+++ b/ValueSet-befundstatust-vs.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-02-09T15:43:55+00:00</t>
+    <t>2025-04-28T11:03:49+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
